--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2141585.769094305</v>
+        <v>2159960.458560425</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9963012.959981358</v>
+        <v>9963012.959981354</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>194.0074830497384</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>164.0120820518466</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>216.6993815150876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>78.64571997422891</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>267.0619211182978</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>213.071375665914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,16 +944,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10.70611463921604</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>81.56332942408272</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>92.81663595486178</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>3.216022345832311</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.602131337870062</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.54503968478</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.1474114830839</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>196.5407308671398</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>28.93383514625458</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6798090112949</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>75.57809216555839</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.8138435123469</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.69999672039317</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.2952156358088</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>98.33170129381689</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.633341602777154</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>95.20854749054038</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>49.62468329227868</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2950,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>127.9755075699413</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>28.51520886558767</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>127.0611703421894</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>111.5592988647983</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>74.46989343623055</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>280.8587923321584</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>87.80654149621924</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>135.9622846212868</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3791,7 +3791,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3898,22 +3898,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>30.22089263670268</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4028,7 +4028,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>119.1566697043641</v>
       </c>
       <c r="W46" t="n">
-        <v>74.25915907972983</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.375564375168</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="C2" t="n">
-        <v>1154.375564375168</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D2" t="n">
-        <v>796.1098657684179</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>410.3216131701736</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>403.3761124209702</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.97540443929</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.97540443929</v>
+        <v>1299.526533804879</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1490.978909181595</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.016392241183</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>763.7506936344325</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>763.7506936344325</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y5" t="n">
-        <v>1490.978909181595</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,16 +4650,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>389.0166762901907</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859356</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.714918859356</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>951.4492202526055</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>565.6609676543612</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2693.900583598191</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2517.723095912361</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2299.088428884424</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2045.326643522515</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="9">
@@ -4878,13 +4878,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598711</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>366.9506135266869</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>197.9508132650193</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>513.8405610245973</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,10 +5057,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5075,7 +5075,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5124,16 +5124,16 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.9573788353326</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>394.9573788353326</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>244.8407394229969</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>843.7395088768801</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X13" t="n">
-        <v>615.7499579788628</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.9573788353326</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6642370999739</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C16" t="n">
-        <v>571.6642370999739</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X16" t="n">
-        <v>792.456816243504</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y16" t="n">
-        <v>571.6642370999739</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,28 +5531,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>2032.925401907737</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2312.465467126434</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.5883316929525</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5704,19 +5704,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.5883316929525</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,40 +5741,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.5883316929525</v>
+        <v>4105.281465137647</v>
       </c>
       <c r="C22" t="n">
-        <v>471.5883316929525</v>
+        <v>4105.281465137647</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>3955.164825725311</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>3867.997941244696</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344999</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364826</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.5883316929525</v>
+        <v>4105.281465137647</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028661</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823796</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>2865.020197448831</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>3633.388343841292</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>3963.250971505325</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>4242.791036724022</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3726.65566639869</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C25" t="n">
-        <v>3627.330715596855</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596855</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596855</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>4857.184530991286</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>4633.399115780792</v>
       </c>
       <c r="U25" t="n">
-        <v>4236.865415579181</v>
+        <v>4344.27047699435</v>
       </c>
       <c r="V25" t="n">
-        <v>4236.865415579181</v>
+        <v>4089.585988788464</v>
       </c>
       <c r="W25" t="n">
-        <v>3947.44824554222</v>
+        <v>4089.585988788464</v>
       </c>
       <c r="X25" t="n">
-        <v>3947.44824554222</v>
+        <v>3861.596437890446</v>
       </c>
       <c r="Y25" t="n">
-        <v>3726.65566639869</v>
+        <v>3640.803858746916</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>341.3004350331238</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>341.3004350331238</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>193.3873414507307</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1137.795214315807</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>883.1107261099196</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>883.1107261099196</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X28" t="n">
-        <v>655.1211752119023</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y28" t="n">
-        <v>434.3285960683721</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>932.1883377003201</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3756.161980826922</v>
+        <v>653.8460027287427</v>
       </c>
       <c r="C31" t="n">
-        <v>3756.161980826922</v>
+        <v>484.9098198008359</v>
       </c>
       <c r="D31" t="n">
-        <v>3606.045341414586</v>
+        <v>484.9098198008359</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414586</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>4521.056218213299</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>4266.371730007412</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W31" t="n">
-        <v>3976.954559970452</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X31" t="n">
-        <v>3976.954559970452</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="Y31" t="n">
-        <v>3756.161980826922</v>
+        <v>653.8460027287427</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,16 +6765,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
@@ -6783,19 +6783,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.0324822735073</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C34" t="n">
-        <v>337.0962993456004</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D34" t="n">
-        <v>337.0962993456004</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E34" t="n">
-        <v>337.0962993456004</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>337.0962993456004</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.155006650235</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.155006650235</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.155006650235</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>985.737836613274</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>985.737836613274</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735073</v>
+        <v>985.737836613274</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>3079.144181652284</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>3883.555759916434</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>4163.095825135131</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>635.4175688028198</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>635.4175688028198</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>487.5044752204267</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>340.6145277225163</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>172.4392060423369</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>680.4399919943228</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>425.7555037884359</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W37" t="n">
-        <v>425.7555037884359</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X37" t="n">
-        <v>425.7555037884359</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.7555037884359</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7178,19 +7178,19 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7214,10 +7214,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3933.602539556365</v>
+        <v>616.0384892293818</v>
       </c>
       <c r="C40" t="n">
-        <v>3764.666356628458</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>3764.666356628458</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>3764.666356628458</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>3764.666356628458</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3596.491034948278</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>4637.069157803799</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>4382.384669597912</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W40" t="n">
-        <v>4382.384669597912</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X40" t="n">
-        <v>4154.395118699895</v>
+        <v>616.0384892293818</v>
       </c>
       <c r="Y40" t="n">
-        <v>3933.602539556365</v>
+        <v>616.0384892293818</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,16 +7412,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>190.6805289025654</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2520.760934363148</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>743.3431626812556</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="C43" t="n">
-        <v>712.8170085027681</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="D43" t="n">
-        <v>562.7003690904323</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V43" t="n">
-        <v>964.1357418247858</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W43" t="n">
-        <v>964.1357418247858</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X43" t="n">
-        <v>964.1357418247858</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="Y43" t="n">
-        <v>743.3431626812556</v>
+        <v>3575.849309876492</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,10 +7664,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>3263.786115209751</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>3571.106248489713</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>3900.968876153745</v>
       </c>
       <c r="O45" t="n">
-        <v>1818.397748747283</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>786.0822064765186</v>
+        <v>1154.770582918758</v>
       </c>
       <c r="W46" t="n">
-        <v>711.072954880832</v>
+        <v>865.3534128817969</v>
       </c>
       <c r="X46" t="n">
-        <v>711.072954880832</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.072954880832</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P12" t="n">
-        <v>43.6598726146251</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38.86002301949912</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.14409596997092</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N21" t="n">
-        <v>52.4973336130526</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>94.13752431970579</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>392.1113620226438</v>
       </c>
       <c r="P27" t="n">
-        <v>230.7151863772039</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10431,22 +10431,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>199.6230805871084</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.49733361305248</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.83804904622872</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="P45" t="n">
-        <v>308.1251096272036</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2865511634852282</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>89.98226746945124</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>119.6816378719578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.7541536352743208</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>91.66872893306945</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0.6797249510307211</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>90.9154762978192</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>60.13874701076037</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>68.91511980481094</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>194.2874683808261</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>50.21250053239086</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>236.6126691062987</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>18.45845507662787</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>257.7221435329897</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>39.43239812118816</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>109.988262193591</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>74.44393493130558</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>5.37856006641897</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>79.44027960240859</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>12.95154374624937</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>137.0259284619252</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>33.08849621799411</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,25 +26071,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>132.9809736194638</v>
       </c>
       <c r="W46" t="n">
-        <v>212.2638392568612</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049989</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049989</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
         <v>547440.6836327917</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="K2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327915</v>
       </c>
       <c r="P2" t="n">
         <v>547440.683632792</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,7 +26497,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275116.8168582235</v>
+        <v>-272588.4956947813</v>
       </c>
       <c r="C6" t="n">
-        <v>314851.0623563209</v>
+        <v>317379.3835197635</v>
       </c>
       <c r="D6" t="n">
-        <v>314851.062356321</v>
+        <v>317379.3835197633</v>
       </c>
       <c r="E6" t="n">
-        <v>-101045.0435831197</v>
+        <v>-99010.22434512265</v>
       </c>
       <c r="F6" t="n">
-        <v>424114.9928937765</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="G6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="H6" t="n">
-        <v>424114.9928937759</v>
+        <v>426149.8121317727</v>
       </c>
       <c r="I6" t="n">
-        <v>424114.9928937764</v>
+        <v>426149.8121317729</v>
       </c>
       <c r="J6" t="n">
-        <v>247691.7737011834</v>
+        <v>249726.5929391799</v>
       </c>
       <c r="K6" t="n">
-        <v>424114.9928937764</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="L6" t="n">
-        <v>424114.992893776</v>
+        <v>426149.8121317732</v>
       </c>
       <c r="M6" t="n">
-        <v>289313.9776599391</v>
+        <v>291348.7968979361</v>
       </c>
       <c r="N6" t="n">
-        <v>424114.9928937764</v>
+        <v>426149.812131773</v>
       </c>
       <c r="O6" t="n">
-        <v>424114.9928937764</v>
+        <v>426149.8121317726</v>
       </c>
       <c r="P6" t="n">
-        <v>424114.9928937762</v>
+        <v>426149.812131773</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>219.7766869710566</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>222.2258566042069</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>69.82361682150341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>139.9389333778659</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>115.6719205451827</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>193.8046700757975</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>156.5407064594118</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>204.718544817895</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>314.0594097868496</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>51.26238022897937</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>148.5687575039251</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>141.7368345571977</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31543,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q10" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31713,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,10 +35501,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P12" t="n">
-        <v>250.7532875461497</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>321.2237252606072</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>226.2375109014956</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36203,13 +36203,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>385.6919070110654</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>343.3952292757301</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>492.4584513372614</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36686,10 +36686,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>674.475064263752</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36911,22 +36911,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>401.6619767334877</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37151,22 +37151,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>616.5391140644624</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>406.7164955186331</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37622,13 +37622,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -37640,7 +37640,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>94.40751256795913</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.8510818313028</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>674.4750642637515</v>
       </c>
       <c r="P45" t="n">
-        <v>515.2185245587283</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2159960.458560425</v>
+        <v>2235490.12822523</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9963012.959981354</v>
+        <v>9963012.959981356</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>78.20985279608102</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +709,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>164.0120820518466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.64571997422891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>267.0619211182978</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>174.6237054483611</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>10.70611463921604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.69972393947205</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>212.1370054753146</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.216022345832311</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1190,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.58915559857827</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>7.602131337870062</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.10471589138055</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>196.5407308671398</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113185</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6798090112949</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>207.6816396348341</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8138435123469</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>94.1648127494131</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>172.7067178467371</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>86.2952156358088</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>3.633341602777154</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>167.6530492049042</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>95.20854749054038</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>87.8192509075292</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>127.9755075699413</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>88.0970556317673</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>111.5592988647983</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>74.46989343623055</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>87.80654149621924</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>109.4779828373168</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>182.9200163991734</v>
       </c>
       <c r="V46" t="n">
-        <v>119.1566697043641</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1299.526533804879</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>1958.492445258345</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>1958.492445258345</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.346402544967</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6471865296041</v>
+        <v>322.5758555962229</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>153.639672668316</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>153.639672668316</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>153.639672668316</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>153.639672668316</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>153.639672668316</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>153.639672668316</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6471865296041</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6471865296041</v>
+        <v>322.5758555962229</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6471865296041</v>
+        <v>322.5758555962229</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2693.900583598191</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2517.723095912361</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2299.088428884424</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2045.326643522515</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1714.263756178945</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1714.263756178945</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1714.263756178945</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.263756178945</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245973</v>
+        <v>141.6087543326021</v>
       </c>
       <c r="C10" t="n">
-        <v>513.8405610245973</v>
+        <v>141.6087543326021</v>
       </c>
       <c r="D10" t="n">
-        <v>513.8405610245973</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>513.8405610245973</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>366.9506135266869</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>197.9508132650193</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245973</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245973</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245973</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245973</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245973</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245973</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245973</v>
+        <v>323.2572191628418</v>
       </c>
     </row>
     <row r="11">
@@ -5036,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>604.1452103957605</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W13" t="n">
-        <v>821.9203763666327</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X13" t="n">
-        <v>593.9308254686154</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.9308254686154</v>
+        <v>785.7936752260002</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5260,19 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155896</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
@@ -5279,25 +5281,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5309,10 +5311,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851617</v>
@@ -5358,22 +5360,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.3210135240263</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>506.3210135240263</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>506.3210135240263</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655738</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="X16" t="n">
-        <v>727.1135926675564</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.3210135240263</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,55 +5512,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.1765965867977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,40 +5743,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,31 +5819,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4105.281465137647</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4105.281465137647</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3955.164825725311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3867.997941244696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.074044281177</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>4326.074044281177</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>4326.074044281177</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X22" t="n">
-        <v>4326.074044281177</v>
+        <v>492.4609007520353</v>
       </c>
       <c r="Y22" t="n">
-        <v>4105.281465137647</v>
+        <v>271.6683216085052</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028661</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823796</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916677</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4857.184530991286</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4633.399115780792</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>4344.27047699435</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>4089.585988788464</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W25" t="n">
-        <v>4089.585988788464</v>
+        <v>763.890154481005</v>
       </c>
       <c r="X25" t="n">
-        <v>3861.596437890446</v>
+        <v>763.890154481005</v>
       </c>
       <c r="Y25" t="n">
-        <v>3640.803858746916</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6232,22 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6306,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>510.2366179610307</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>341.3004350331238</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>341.3004350331238</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>193.3873414507307</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045608</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X28" t="n">
-        <v>731.0291971045608</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.2366179610307</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6442,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6464,7 +6466,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6476,10 +6478,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.8460027287427</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="C31" t="n">
-        <v>484.9098198008359</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D31" t="n">
-        <v>484.9098198008359</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E31" t="n">
-        <v>355.6416303362487</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
         <v>208.7516828383384</v>
@@ -6649,22 +6651,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.055751909234</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>874.6385818722729</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6385818722729</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y31" t="n">
-        <v>653.8460027287427</v>
+        <v>615.7499579788628</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,31 +6721,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141288</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>804.0893717830343</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C34" t="n">
-        <v>804.0893717830343</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D34" t="n">
-        <v>653.9727323706985</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.155006650235</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.155006650235</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.155006650235</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>985.737836613274</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>985.737836613274</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.737836613274</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,19 +6958,19 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372322</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>3079.144181652284</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>3883.555759916434</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>4163.095825135131</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>804.3537517307267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>635.4175688028198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>635.4175688028198</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>487.5044752204267</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>340.6145277225163</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>172.4392060423369</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>986.0022165609664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,16 +7171,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7193,31 +7195,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>485.4047026089419</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>732.1698305154059</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0384892293818</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V40" t="n">
-        <v>844.0280401273991</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W40" t="n">
-        <v>844.0280401273991</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X40" t="n">
-        <v>616.0384892293818</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.0384892293818</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>190.6805289025654</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U43" t="n">
-        <v>4347.940519017357</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>4093.25603081147</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>3803.838860774509</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>3575.849309876492</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7645,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3263.786115209751</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M45" t="n">
-        <v>3571.106248489713</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>3900.968876153745</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>4568.699189774859</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.5712828402495</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="V46" t="n">
-        <v>1154.770582918758</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="W46" t="n">
-        <v>865.3534128817969</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="X46" t="n">
-        <v>637.3638619837795</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="Y46" t="n">
-        <v>416.5712828402495</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270191</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>104.8749102765741</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229581</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229581</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>182.0340742867951</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9878,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>392.1113620226438</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>199.6230805871084</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>159.0121003135241</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>52.49733361305248</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>277.6717966208063</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>392.1113620226434</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>70.14210520724728</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>89.98226746945124</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7541536352743208</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>78.84135870175692</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6797249510307211</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>7.125262335200205</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>60.13874701076037</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.2874683808261</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>118.8699491316868</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>50.21250053239086</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>92.0127292744081</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>18.45845507662787</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24889,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>91.73492455016999</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>109.988262193591</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>74.44393493130558</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>79.44027960240859</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>116.2316725517204</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>33.08849621799411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>103.3173359994039</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9809736194638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327917</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="L2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327915</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="P2" t="n">
         <v>547440.683632792</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26442,10 +26444,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230233</v>
@@ -26454,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26470,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26488,7 +26490,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.4956947813</v>
+        <v>-272588.4956947812</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.3835197635</v>
+        <v>317379.3835197628</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.3835197633</v>
+        <v>317379.3835197629</v>
       </c>
       <c r="E6" t="n">
-        <v>-99010.22434512265</v>
+        <v>-99010.22434512278</v>
       </c>
       <c r="F6" t="n">
+        <v>426149.8121317728</v>
+      </c>
+      <c r="G6" t="n">
+        <v>426149.8121317731</v>
+      </c>
+      <c r="H6" t="n">
+        <v>426149.8121317731</v>
+      </c>
+      <c r="I6" t="n">
+        <v>426149.8121317733</v>
+      </c>
+      <c r="J6" t="n">
+        <v>249726.5929391801</v>
+      </c>
+      <c r="K6" t="n">
+        <v>426149.8121317728</v>
+      </c>
+      <c r="L6" t="n">
+        <v>426149.8121317734</v>
+      </c>
+      <c r="M6" t="n">
+        <v>291348.7968979359</v>
+      </c>
+      <c r="N6" t="n">
         <v>426149.8121317732</v>
       </c>
-      <c r="G6" t="n">
-        <v>426149.8121317732</v>
-      </c>
-      <c r="H6" t="n">
-        <v>426149.8121317727</v>
-      </c>
-      <c r="I6" t="n">
-        <v>426149.8121317729</v>
-      </c>
-      <c r="J6" t="n">
-        <v>249726.5929391799</v>
-      </c>
-      <c r="K6" t="n">
-        <v>426149.8121317732</v>
-      </c>
-      <c r="L6" t="n">
-        <v>426149.8121317732</v>
-      </c>
-      <c r="M6" t="n">
-        <v>291348.7968979361</v>
-      </c>
-      <c r="N6" t="n">
-        <v>426149.812131773</v>
-      </c>
       <c r="O6" t="n">
-        <v>426149.8121317726</v>
+        <v>426149.8121317733</v>
       </c>
       <c r="P6" t="n">
         <v>426149.812131773</v>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26768,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>287.0630389749265</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.2258566042069</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>139.9389333778659</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115.6719205451827</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>174.6172632690519</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>156.5407064594118</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>36.26589785286617</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>169.7933645969472</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>51.26238022897937</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>107.0263174196341</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5687575039251</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,22 +31521,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31543,19 +31545,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31713,7 +31715,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081133</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>387.2386125176823</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221127</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>492.4584513372614</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36598,7 +36600,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36686,16 +36688,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>674.475064263752</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>693.6972596887387</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>406.7164955186331</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>350.1985191750489</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>366.1055152450488</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.40751256795913</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>588.0961736712726</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>674.4750642637515</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2235490.12822523</v>
+        <v>2228473.113333519</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9963012.959981356</v>
+        <v>9963012.959981354</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>78.20985279608102</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>153.5613156481821</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>14.5016976021302</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>174.6237054483611</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.69972393947205</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>212.1370054753146</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>6.283679164005257</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>41.58915559857827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>26.32882004050071</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.10471589138055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>251.4037217274519</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113185</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>106.8698659703781</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>207.6816396348341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>94.1648127494131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.7067178467371</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>175.0698676614145</v>
       </c>
       <c r="W25" t="n">
-        <v>167.6530492049042</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>238.2336684417116</v>
+        <v>234.5175081001671</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.8192509075292</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -3000,22 +3000,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670917</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.0970556317673</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>199.6667541081944</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.2693293806808</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>109.4779828373168</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1796758467</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>182.9200163991734</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.412473230863</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2310.830473814217</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2310.830473814217</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X2" t="n">
-        <v>1859.412473230863</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y2" t="n">
-        <v>1859.412473230863</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E5" t="n">
         <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2682.500911622131</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.492445258345</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.492445258345</v>
+        <v>2351.43802427856</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.353113282533</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.5758555962229</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>153.639672668316</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>153.639672668316</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>153.639672668316</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>153.639672668316</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>153.639672668316</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>153.639672668316</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942403</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>322.5758555962229</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>322.5758555962229</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.638474227114</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.638474227114</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1250.638474227114</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1250.638474227114</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.6087543326021</v>
+        <v>546.4805193761949</v>
       </c>
       <c r="C10" t="n">
-        <v>141.6087543326021</v>
+        <v>377.544336448288</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>227.4276970359523</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>227.4276970359523</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>80.53774953804196</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>604.1452103957605</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C13" t="n">
-        <v>506.0596387883054</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>506.0596387883054</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.210845262961</v>
+        <v>933.9780037752275</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752260002</v>
+        <v>644.5608337382669</v>
       </c>
       <c r="X13" t="n">
-        <v>785.7936752260002</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="Y13" t="n">
-        <v>785.7936752260002</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155896</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,28 +5302,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341676</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3285960683721</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1390.966910991864</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.921157035281</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488389</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="V16" t="n">
-        <v>644.108030042952</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W16" t="n">
-        <v>434.3285960683721</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X16" t="n">
-        <v>434.3285960683721</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y16" t="n">
-        <v>434.3285960683721</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5494,10 +5494,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,37 +5515,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5676,40 +5676,40 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500526</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>492.4609007520353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>271.6683216085052</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>582.2416896507652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2366688293931</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W25" t="n">
-        <v>763.890154481005</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X25" t="n">
-        <v>763.890154481005</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>763.890154481005</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1258.27620142486</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V28" t="n">
-        <v>1003.591713218973</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W28" t="n">
-        <v>714.1745431820127</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X28" t="n">
-        <v>486.1849922839954</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,37 +6475,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.0436439308535</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C31" t="n">
-        <v>527.0436439308535</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D31" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913841</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W31" t="n">
-        <v>843.7395088768801</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X31" t="n">
-        <v>615.7499579788628</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y31" t="n">
-        <v>615.7499579788628</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>671.7300455988212</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C34" t="n">
-        <v>671.7300455988212</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D34" t="n">
-        <v>671.7300455988212</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1186.157577111451</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1186.157577111451</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>931.4730889055638</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229244</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7169704793943</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,28 +6958,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.613099482868</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488384</v>
+        <v>898.4844606964261</v>
       </c>
       <c r="V40" t="n">
-        <v>644.1080300429516</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="W40" t="n">
-        <v>354.6908600059909</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X40" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,19 +7499,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7733,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>779.3680484922876</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>779.3680484922876</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>779.3680484922876</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>779.3680484922876</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>558.5754693487575</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119848</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>234.4116509503174</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>104.8749102765741</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>159.0121003135241</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>277.6717966208063</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>70.14210520724728</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0.7339215963760921</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>91.05094401322511</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>78.84135870175692</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.125262335200205</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>77.06777566241345</v>
       </c>
       <c r="W25" t="n">
-        <v>118.8699491316868</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>48.00368395686573</v>
+        <v>51.71984429841021</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.0127292744081</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>140.3375291694993</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.73492455016999</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>21.88080695019485</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>111.2782316777084</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>116.2316725517204</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>14.74113413690324</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>103.3173359994039</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049989</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327917</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="K2" t="n">
-        <v>547440.6836327917</v>
-      </c>
       <c r="L2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="M2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547440.6836327916</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.846656682071625e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26444,7 +26444,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-272588.4956947812</v>
+        <v>-272588.4956947811</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.3835197628</v>
+        <v>317379.383519763</v>
       </c>
       <c r="D6" t="n">
         <v>317379.3835197629</v>
       </c>
       <c r="E6" t="n">
-        <v>-99010.22434512278</v>
+        <v>-99984.81560484406</v>
       </c>
       <c r="F6" t="n">
-        <v>426149.8121317728</v>
+        <v>425175.2208720516</v>
       </c>
       <c r="G6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720515</v>
       </c>
       <c r="H6" t="n">
-        <v>426149.8121317731</v>
+        <v>425175.2208720512</v>
       </c>
       <c r="I6" t="n">
-        <v>426149.8121317733</v>
+        <v>425175.2208720515</v>
       </c>
       <c r="J6" t="n">
-        <v>249726.5929391801</v>
+        <v>248752.0016794586</v>
       </c>
       <c r="K6" t="n">
-        <v>426149.8121317728</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="L6" t="n">
-        <v>426149.8121317734</v>
+        <v>425175.2208720515</v>
       </c>
       <c r="M6" t="n">
-        <v>291348.7968979359</v>
+        <v>290374.2056382141</v>
       </c>
       <c r="N6" t="n">
-        <v>426149.8121317732</v>
+        <v>425175.2208720513</v>
       </c>
       <c r="O6" t="n">
-        <v>426149.8121317733</v>
+        <v>425175.220872051</v>
       </c>
       <c r="P6" t="n">
-        <v>426149.812131773</v>
+        <v>425175.2208720516</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>287.0630389749265</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>62.88700470947572</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>105.2976195790726</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>236.7224699061591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>174.6172632690519</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>36.26589785286617</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>169.7933645969472</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.1947234108064</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>107.0263174196341</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>140.9809822185502</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341718</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382566</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>387.2386125176823</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>366.1055152450488</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>588.0961736712726</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228473.113333519</v>
+        <v>2233412.37618255</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>132.3849408889323</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>153.5613156481821</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>43.31785343913975</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>132.517261237516</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>14.5016976021302</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164005257</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>60.46179076613227</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>26.32882004050071</v>
+        <v>26.32882004050093</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>251.4037217274519</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>106.8698659703781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,7 +2535,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>175.0698676614145</v>
+        <v>167.5476332178971</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>234.5175081001671</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.1854691670917</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>199.6667541081944</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>20.04232573950513</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113168</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>110.2693293806808</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3951,10 +3951,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>829.562656169633</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="C2" t="n">
-        <v>460.6001392292213</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2310.830473814217</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2310.830473814217</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1979.767586470646</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1979.767586470646</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1606.301828209567</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1216.162496233755</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="3">
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>97.69838933464703</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1964.838184214438</v>
+        <v>1725.724578248622</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274026</v>
+        <v>1356.76206130821</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274026</v>
+        <v>998.4963627014597</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>612.7081101032154</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>605.7626093540119</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>187.7988012521988</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2682.500911622131</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2351.43802427856</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.43802427856</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X5" t="n">
-        <v>2351.43802427856</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="Y5" t="n">
-        <v>2351.43802427856</v>
+        <v>2112.324418312744</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097704</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280444</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,19 +4883,19 @@
         <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761949</v>
+        <v>546.4805193761952</v>
       </c>
       <c r="C10" t="n">
-        <v>377.544336448288</v>
+        <v>377.5443364482883</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359523</v>
+        <v>227.4276970359525</v>
       </c>
       <c r="E10" t="n">
-        <v>227.4276970359523</v>
+        <v>227.4276970359525</v>
       </c>
       <c r="F10" t="n">
-        <v>80.53774953804196</v>
+        <v>80.53774953804219</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036448</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>933.9780037752275</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>644.5608337382669</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>416.5712828402495</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>199.530035688927</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>199.530035688927</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>199.530035688927</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>199.530035688927</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1390.966910991864</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1167.181495781369</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1167.181495781369</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1167.181495781369</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>877.7643257444088</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X16" t="n">
-        <v>649.7747748463914</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.9821957028613</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="17">
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110095</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555221</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5743,19 +5743,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5980,19 +5980,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>498.168852875299</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1038.244483529058</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>783.5599953231707</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>494.1428252862101</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6548,22 +6548,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.3450129705745</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705745</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>675.007103038344</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>527.3450129705745</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>527.3450129705745</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.3450129705745</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1186.157577111451</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1186.157577111451</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>931.4730889055638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>642.0559188686032</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6979,7 +6979,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.613099482868</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>898.4844606964261</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>643.7999724905393</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>643.7999724905393</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7599,7 +7599,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028816</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814756</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119848</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503174</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814756</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>62.79465928983183</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7339215963760921</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>44.13123323657648</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>91.05094401322511</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="20">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>77.06777566241345</v>
+        <v>84.5900101059309</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.71984429841021</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>87.01935976315694</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>140.3375291694993</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>21.88080695019485</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>205.667329649532</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>111.2782316777084</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327919</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.6836327916</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327915</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.846656682071625e-10</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768957</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218261</v>
@@ -26432,7 +26432,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230239</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,10 +26499,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-272588.4956947811</v>
       </c>
       <c r="C6" t="n">
-        <v>317379.383519763</v>
+        <v>317379.3835197631</v>
       </c>
       <c r="D6" t="n">
-        <v>317379.3835197629</v>
+        <v>317379.3835197626</v>
       </c>
       <c r="E6" t="n">
-        <v>-99984.81560484406</v>
+        <v>-99107.68347109482</v>
       </c>
       <c r="F6" t="n">
-        <v>425175.2208720516</v>
+        <v>426052.3530058009</v>
       </c>
       <c r="G6" t="n">
-        <v>425175.2208720515</v>
+        <v>426052.3530058007</v>
       </c>
       <c r="H6" t="n">
-        <v>425175.2208720512</v>
+        <v>426052.3530058006</v>
       </c>
       <c r="I6" t="n">
-        <v>425175.2208720515</v>
+        <v>426052.3530058008</v>
       </c>
       <c r="J6" t="n">
-        <v>248752.0016794586</v>
+        <v>249629.133813208</v>
       </c>
       <c r="K6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058007</v>
       </c>
       <c r="L6" t="n">
-        <v>425175.2208720515</v>
+        <v>426052.353005801</v>
       </c>
       <c r="M6" t="n">
-        <v>290374.2056382141</v>
+        <v>291251.3377719636</v>
       </c>
       <c r="N6" t="n">
-        <v>425175.2208720513</v>
+        <v>426052.3530058008</v>
       </c>
       <c r="O6" t="n">
-        <v>425175.220872051</v>
+        <v>426052.3530058009</v>
       </c>
       <c r="P6" t="n">
-        <v>425175.2208720516</v>
+        <v>426052.3530058004</v>
       </c>
     </row>
   </sheetData>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26767,10 +26767,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545559</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370132</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990171</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990171</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>232.8879508820752</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>62.88700470947572</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>105.2976195790726</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>191.4055115268411</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>236.7224699061591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.1947234108064</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>190.762376742157</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>140.9809822185502</v>
+        <v>140.9809822185499</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
         <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
         <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932186</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341718</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382566</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330542</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>269.8880742213565</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
